--- a/ResumeSkill.xlsx
+++ b/ResumeSkill.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajat\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05D613-AC9E-462F-B7B3-EDFAC41D8B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Front_End</t>
   </si>
@@ -31,7 +24,10 @@
     <t>Machine_Learning</t>
   </si>
   <si>
-    <t>Android_Developer</t>
+    <t>DevOPS</t>
+  </si>
+  <si>
+    <t>Business_Intelligence</t>
   </si>
   <si>
     <t>Education</t>
@@ -49,7 +45,10 @@
     <t>GO</t>
   </si>
   <si>
-    <t>B.E in Computer Engineering</t>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.E in Computer Engineering</t>
   </si>
   <si>
     <t>HTML</t>
@@ -58,7 +57,10 @@
     <t>Python</t>
   </si>
   <si>
-    <t>M.E in Computer Engineering</t>
+    <t>PowerBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.E in Computer Engineering</t>
   </si>
   <si>
     <t>CSS</t>
@@ -70,13 +72,16 @@
     <t>NoSql</t>
   </si>
   <si>
-    <t>Bachelor In Computer Engineering</t>
+    <t>Qlik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor In Computer Engineering</t>
   </si>
   <si>
     <t>JavaScript</t>
   </si>
   <si>
-    <t>. Net</t>
+    <t>.Net</t>
   </si>
   <si>
     <t>C++</t>
@@ -85,7 +90,10 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>Bachelor in Computer Science</t>
+    <t>Grafana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor in Computer Science</t>
   </si>
   <si>
     <t xml:space="preserve">C++ </t>
@@ -97,7 +105,10 @@
     <t>Kotlin</t>
   </si>
   <si>
-    <t>Masters in Computer Engineering</t>
+    <t>D3.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masters in Computer Engineering</t>
   </si>
   <si>
     <t>jQuery</t>
@@ -109,10 +120,10 @@
     <t>Theano</t>
   </si>
   <si>
-    <t>Android Studio</t>
-  </si>
-  <si>
-    <t>Masters in Computer Science</t>
+    <t xml:space="preserve">Android Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masters in Computer Science</t>
   </si>
   <si>
     <t>Bootstrap</t>
@@ -124,25 +135,25 @@
     <t>Tensorflow</t>
   </si>
   <si>
-    <t>Android SDK</t>
-  </si>
-  <si>
-    <t>Bachelor in Information Technology</t>
+    <t xml:space="preserve">Android SDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor in Information Technology</t>
   </si>
   <si>
     <t xml:space="preserve">Version Control/Git </t>
   </si>
   <si>
-    <t>Postgres SQL</t>
-  </si>
-  <si>
-    <t>Swift AI</t>
-  </si>
-  <si>
-    <t>Material Design</t>
-  </si>
-  <si>
-    <t>Masters in Information Technology</t>
+    <t xml:space="preserve">Postgres SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swift AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masters in Information Technology</t>
   </si>
   <si>
     <t xml:space="preserve"> Sass</t>
@@ -184,7 +195,7 @@
     <t>C#</t>
   </si>
   <si>
-    <t>Bachelor in Information Management</t>
+    <t xml:space="preserve">Bachelor in Information Management</t>
   </si>
   <si>
     <t>AngularJS</t>
@@ -193,7 +204,7 @@
     <t>Redis</t>
   </si>
   <si>
-    <t>IBM Watson</t>
+    <t xml:space="preserve">IBM Watson</t>
   </si>
   <si>
     <t>B.I.M</t>
@@ -202,7 +213,7 @@
     <t>ES6</t>
   </si>
   <si>
-    <t>SQL Server</t>
+    <t xml:space="preserve">SQL Server</t>
   </si>
   <si>
     <t>Deeplearning4j</t>
@@ -211,7 +222,7 @@
     <t>xml</t>
   </si>
   <si>
-    <t>Bachelor of Computer Science and Information Technology</t>
+    <t xml:space="preserve">Bachelor of Computer Science and Information Technology</t>
   </si>
   <si>
     <t>Angular</t>
@@ -220,10 +231,13 @@
     <t xml:space="preserve">Docker    </t>
   </si>
   <si>
+    <t>knn</t>
+  </si>
+  <si>
     <t>Firebase</t>
   </si>
   <si>
-    <t>Bsc Csit</t>
+    <t xml:space="preserve">Bsc Csit</t>
   </si>
   <si>
     <t>React</t>
@@ -232,13 +246,13 @@
     <t>Kubernetes</t>
   </si>
   <si>
-    <t>Linear Regression</t>
+    <t xml:space="preserve">Linear Regression</t>
   </si>
   <si>
     <t>SQLite</t>
   </si>
   <si>
-    <t>Masters of Computer Science and Information Technology</t>
+    <t xml:space="preserve">Masters of Computer Science and Information Technology</t>
   </si>
   <si>
     <t>Vue.JS</t>
@@ -247,25 +261,25 @@
     <t>Nginx</t>
   </si>
   <si>
-    <t>Logistic Regression</t>
+    <t xml:space="preserve">Logistic Regression</t>
   </si>
   <si>
     <t>RDBMS</t>
   </si>
   <si>
-    <t>Msc Csit</t>
+    <t xml:space="preserve">Msc Csit</t>
   </si>
   <si>
     <t>Meteor</t>
   </si>
   <si>
-    <t>Decision Trees</t>
+    <t xml:space="preserve">Decision Trees</t>
   </si>
   <si>
     <t>XCode</t>
   </si>
   <si>
-    <t>Bachelor of Computer Application</t>
+    <t xml:space="preserve">Bachelor of Computer Application</t>
   </si>
   <si>
     <t>Node.JS</t>
@@ -274,10 +288,13 @@
     <t xml:space="preserve">Apache  </t>
   </si>
   <si>
-    <t>Random Forests</t>
-  </si>
-  <si>
-    <t>Masters of Computer Application</t>
+    <t xml:space="preserve">Random Forests</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masters of Computer Application</t>
   </si>
   <si>
     <t>Backbone.JS</t>
@@ -286,31 +303,34 @@
     <t>SVM</t>
   </si>
   <si>
+    <t>Docker</t>
+  </si>
+  <si>
     <t>B.C.A</t>
   </si>
   <si>
     <t>Aurelia</t>
   </si>
   <si>
-    <t>IIS servers</t>
-  </si>
-  <si>
-    <t>K-Nearest Neighbors</t>
+    <t xml:space="preserve">IIS servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-Nearest Neighbors</t>
   </si>
   <si>
     <t>M.C.A</t>
   </si>
   <si>
-    <t>Chrome DevTools</t>
-  </si>
-  <si>
-    <t>Microsoft IIS</t>
+    <t xml:space="preserve">Chrome DevTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft IIS</t>
   </si>
   <si>
     <t>XGBoost</t>
   </si>
   <si>
-    <t>Bachelor of Business Information</t>
+    <t xml:space="preserve">Bachelor of Business Information</t>
   </si>
   <si>
     <t>Agile/Scrum</t>
@@ -328,13 +348,13 @@
     <t>UI/UX</t>
   </si>
   <si>
-    <t>SOAP API</t>
-  </si>
-  <si>
-    <t>Neural Networks</t>
-  </si>
-  <si>
-    <t>Bachelor of Computational Mathematics</t>
+    <t xml:space="preserve">SOAP API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor of Computational Mathematics</t>
   </si>
   <si>
     <t>TypeScript</t>
@@ -343,7 +363,7 @@
     <t>Express.js</t>
   </si>
   <si>
-    <t>Naive Bayes</t>
+    <t xml:space="preserve">Naive Bayes</t>
   </si>
   <si>
     <t>Bachelors</t>
@@ -352,10 +372,10 @@
     <t>ReactJS</t>
   </si>
   <si>
-    <t>Phoenix (Elixir)</t>
-  </si>
-  <si>
-    <t>Apache Spark</t>
+    <t xml:space="preserve">Phoenix (Elixir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache Spark</t>
   </si>
   <si>
     <t>Masters</t>
@@ -376,10 +396,10 @@
     <t>es7</t>
   </si>
   <si>
-    <t>Ruby on Rails</t>
-  </si>
-  <si>
-    <t>SQL / NoSQL</t>
+    <t xml:space="preserve">Ruby on Rails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL / NoSQL</t>
   </si>
   <si>
     <t>Master</t>
@@ -394,10 +414,10 @@
     <t>numpy</t>
   </si>
   <si>
-    <t>Bachelor of Computer Science</t>
-  </si>
-  <si>
-    <t>adobe illustrator</t>
+    <t xml:space="preserve">Bachelor of Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adobe illustrator</t>
   </si>
   <si>
     <t>Flask</t>
@@ -406,28 +426,28 @@
     <t>pandas</t>
   </si>
   <si>
-    <t>Bachelor of Science in Computer Science</t>
+    <t xml:space="preserve">Bachelor of Science in Computer Science</t>
   </si>
   <si>
     <t>wordpress</t>
   </si>
   <si>
-    <t>ASP.NET Core</t>
+    <t xml:space="preserve">ASP.NET Core</t>
   </si>
   <si>
     <t>Pytorch</t>
   </si>
   <si>
-    <t>B.S in Computer Science</t>
-  </si>
-  <si>
-    <t>Spring MVC</t>
+    <t xml:space="preserve">B.S in Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring MVC</t>
   </si>
   <si>
     <t>OpenCV</t>
   </si>
   <si>
-    <t>B.S of Computer Science</t>
+    <t xml:space="preserve">B.S of Computer Science</t>
   </si>
   <si>
     <t>CodeIgniter</t>
@@ -436,7 +456,7 @@
     <t>NLTK</t>
   </si>
   <si>
-    <t>Bsc in Computer Science</t>
+    <t xml:space="preserve">Bsc in Computer Science</t>
   </si>
   <si>
     <t>CakePHP</t>
@@ -445,7 +465,7 @@
     <t>BERT</t>
   </si>
   <si>
-    <t>Bsc In Computer Science</t>
+    <t xml:space="preserve">Bsc In Computer Science</t>
   </si>
   <si>
     <t>Symfony</t>
@@ -454,7 +474,7 @@
     <t xml:space="preserve">LSTM  </t>
   </si>
   <si>
-    <t>Play Framework</t>
+    <t xml:space="preserve">Play Framework</t>
   </si>
   <si>
     <t>CNN</t>
@@ -475,7 +495,7 @@
     <t>Npm</t>
   </si>
   <si>
-    <t>AWS lambda</t>
+    <t xml:space="preserve">AWS lambda</t>
   </si>
   <si>
     <t>Yarn</t>
@@ -487,6 +507,9 @@
     <t>Graphql</t>
   </si>
   <si>
+    <t xml:space="preserve">COMPUTER VISION</t>
+  </si>
+  <si>
     <t>Mobx</t>
   </si>
   <si>
@@ -502,62 +525,59 @@
     <t>CICD</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>knn</t>
+    <t>GITLAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dot Net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <color theme="1"/>
+      <sz val="10.000000"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11.000000"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="-apple-system"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Arial"/>
       <color rgb="FF4D5156"/>
-      <name val="Arial"/>
+      <sz val="11.000000"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
-      <sz val="11"/>
       <color rgb="FF5F6368"/>
-      <name val="Arial"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Courier New"/>
+      <color rgb="FF212121"/>
+      <sz val="10.500000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -569,8 +589,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -584,40 +604,43 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="6" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,15 +651,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -693,7 +996,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -719,7 +1022,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -771,16 +1074,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -796,7 +1111,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -827,28 +1142,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.44140625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="19.88671875"/>
+    <col bestFit="1" min="5" max="5" width="25.00390625"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="54.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,671 +1176,746 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" ht="28.5">
+      <c r="A30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="B32" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="5"/>
+      <c r="F32" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="5"/>
+      <c r="F33" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="5"/>
+      <c r="F34" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" ht="28.5">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="5"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="5"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="5"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="5"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="5"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="5"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42">
       <c r="A42" s="5"/>
       <c r="B42" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="13"/>
+        <v>163</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" s="5"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43">
       <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="13"/>
+        <v>165</v>
+      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="5"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44">
       <c r="A44" s="5"/>
       <c r="B44" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="5"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="5"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="5"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47">
       <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E47" s="5"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="B49" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>